--- a/SchedulingData/dynamic15/pso/scheduling2_1.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,116 +462,116 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>254.9</v>
+        <v>231.6</v>
       </c>
       <c r="D2" t="n">
-        <v>323.5</v>
+        <v>282.76</v>
       </c>
       <c r="E2" t="n">
-        <v>10.42</v>
+        <v>9.944000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>224.64</v>
+        <v>242.78</v>
       </c>
       <c r="D3" t="n">
-        <v>303.04</v>
+        <v>309.12</v>
       </c>
       <c r="E3" t="n">
-        <v>14.176</v>
+        <v>11.248</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>323.5</v>
+        <v>252.02</v>
       </c>
       <c r="D4" t="n">
-        <v>384.84</v>
+        <v>288.06</v>
       </c>
       <c r="E4" t="n">
-        <v>7.876</v>
+        <v>12.004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>269.64</v>
+        <v>282.76</v>
       </c>
       <c r="D5" t="n">
-        <v>334.22</v>
+        <v>341.66</v>
       </c>
       <c r="E5" t="n">
-        <v>11.208</v>
+        <v>7.664</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>384.84</v>
+        <v>230.44</v>
       </c>
       <c r="D6" t="n">
-        <v>464.34</v>
+        <v>299.68</v>
       </c>
       <c r="E6" t="n">
-        <v>3.016</v>
+        <v>16.032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>239.32</v>
+        <v>288.06</v>
       </c>
       <c r="D7" t="n">
-        <v>300.38</v>
+        <v>355.46</v>
       </c>
       <c r="E7" t="n">
-        <v>10.132</v>
+        <v>6.904</v>
       </c>
     </row>
     <row r="8">
@@ -580,93 +580,93 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>236.16</v>
+        <v>355.46</v>
       </c>
       <c r="D8" t="n">
-        <v>307.06</v>
+        <v>429.22</v>
       </c>
       <c r="E8" t="n">
-        <v>12.404</v>
+        <v>3.628</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>334.22</v>
+        <v>309.12</v>
       </c>
       <c r="D9" t="n">
-        <v>404.66</v>
+        <v>365.08</v>
       </c>
       <c r="E9" t="n">
-        <v>8.244</v>
+        <v>7.772</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>404.66</v>
+        <v>429.22</v>
       </c>
       <c r="D10" t="n">
-        <v>480.84</v>
+        <v>503.66</v>
       </c>
       <c r="E10" t="n">
-        <v>4.716</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>300.38</v>
+        <v>503.66</v>
       </c>
       <c r="D11" t="n">
-        <v>352.52</v>
+        <v>576.46</v>
       </c>
       <c r="E11" t="n">
-        <v>6.548</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>307.06</v>
+        <v>365.08</v>
       </c>
       <c r="D12" t="n">
-        <v>353.18</v>
+        <v>424.34</v>
       </c>
       <c r="E12" t="n">
-        <v>8.932</v>
+        <v>4.956</v>
       </c>
     </row>
     <row r="13">
@@ -675,150 +675,150 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>303.04</v>
+        <v>341.66</v>
       </c>
       <c r="D13" t="n">
-        <v>381.66</v>
+        <v>408.4</v>
       </c>
       <c r="E13" t="n">
-        <v>10.384</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>241.96</v>
+        <v>230.04</v>
       </c>
       <c r="D14" t="n">
-        <v>306.54</v>
+        <v>303.54</v>
       </c>
       <c r="E14" t="n">
-        <v>8.656000000000001</v>
+        <v>11.796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>353.18</v>
+        <v>249.02</v>
       </c>
       <c r="D15" t="n">
-        <v>426.28</v>
+        <v>297.54</v>
       </c>
       <c r="E15" t="n">
-        <v>4.732</v>
+        <v>11.896</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>306.54</v>
+        <v>303.54</v>
       </c>
       <c r="D16" t="n">
-        <v>377.24</v>
+        <v>340.28</v>
       </c>
       <c r="E16" t="n">
-        <v>4.696</v>
+        <v>9.252000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>352.52</v>
+        <v>340.28</v>
       </c>
       <c r="D17" t="n">
-        <v>400.5</v>
+        <v>395.36</v>
       </c>
       <c r="E17" t="n">
-        <v>3.38</v>
+        <v>5.364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>377.24</v>
+        <v>297.54</v>
       </c>
       <c r="D18" t="n">
-        <v>432.32</v>
+        <v>358.74</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8080000000000001</v>
+        <v>6.916</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>432.32</v>
+        <v>299.68</v>
       </c>
       <c r="D19" t="n">
-        <v>517.3</v>
+        <v>356.76</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>12.964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>517.3</v>
+        <v>408.4</v>
       </c>
       <c r="D20" t="n">
-        <v>556.4</v>
+        <v>448.3</v>
       </c>
       <c r="E20" t="n">
-        <v>27.28</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="21">
@@ -827,131 +827,131 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>381.66</v>
+        <v>448.3</v>
       </c>
       <c r="D21" t="n">
-        <v>420.86</v>
+        <v>536.36</v>
       </c>
       <c r="E21" t="n">
-        <v>7.104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>400.5</v>
+        <v>536.36</v>
       </c>
       <c r="D22" t="n">
-        <v>495.04</v>
+        <v>597.76</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>495.04</v>
+        <v>576.46</v>
       </c>
       <c r="D23" t="n">
-        <v>548.4400000000001</v>
+        <v>619.36</v>
       </c>
       <c r="E23" t="n">
-        <v>26.36</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>556.4</v>
+        <v>395.36</v>
       </c>
       <c r="D24" t="n">
-        <v>599.42</v>
+        <v>448.14</v>
       </c>
       <c r="E24" t="n">
-        <v>24.108</v>
+        <v>1.716</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>548.4400000000001</v>
+        <v>448.14</v>
       </c>
       <c r="D25" t="n">
-        <v>603.0599999999999</v>
+        <v>536.41</v>
       </c>
       <c r="E25" t="n">
-        <v>24.028</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>426.28</v>
+        <v>597.76</v>
       </c>
       <c r="D26" t="n">
-        <v>482.8</v>
+        <v>660.26</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7</v>
+        <v>23.88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>482.8</v>
+        <v>536.41</v>
       </c>
       <c r="D27" t="n">
-        <v>573</v>
+        <v>606.91</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="28">
@@ -960,90 +960,90 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>573</v>
+        <v>619.36</v>
       </c>
       <c r="D28" t="n">
-        <v>626.8</v>
+        <v>682.7</v>
       </c>
       <c r="E28" t="n">
-        <v>26.82</v>
+        <v>21.956</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>420.86</v>
+        <v>358.74</v>
       </c>
       <c r="D29" t="n">
-        <v>489.2</v>
+        <v>410.64</v>
       </c>
       <c r="E29" t="n">
-        <v>4.86</v>
+        <v>3.836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>480.84</v>
+        <v>606.91</v>
       </c>
       <c r="D30" t="n">
-        <v>552.84</v>
+        <v>673.79</v>
       </c>
       <c r="E30" t="n">
-        <v>1.636</v>
+        <v>21.052</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>552.84</v>
+        <v>410.64</v>
       </c>
       <c r="D31" t="n">
-        <v>621.5700000000001</v>
+        <v>445.26</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>1.504</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>464.34</v>
+        <v>445.26</v>
       </c>
       <c r="D32" t="n">
-        <v>540.21</v>
+        <v>519.15</v>
       </c>
       <c r="E32" t="n">
         <v>30</v>
@@ -1055,74 +1055,74 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>540.21</v>
+        <v>673.79</v>
       </c>
       <c r="D33" t="n">
-        <v>582.89</v>
+        <v>708.41</v>
       </c>
       <c r="E33" t="n">
-        <v>26.932</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>582.89</v>
+        <v>660.26</v>
       </c>
       <c r="D34" t="n">
-        <v>647.59</v>
+        <v>725.98</v>
       </c>
       <c r="E34" t="n">
-        <v>24.072</v>
+        <v>20.408</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>647.59</v>
+        <v>356.76</v>
       </c>
       <c r="D35" t="n">
-        <v>713.55</v>
+        <v>414.56</v>
       </c>
       <c r="E35" t="n">
-        <v>21.096</v>
+        <v>9.324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>603.0599999999999</v>
+        <v>682.7</v>
       </c>
       <c r="D36" t="n">
-        <v>653.8</v>
+        <v>739.38</v>
       </c>
       <c r="E36" t="n">
-        <v>21.064</v>
+        <v>18.428</v>
       </c>
     </row>
     <row r="37">
@@ -1131,188 +1131,207 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>599.42</v>
+        <v>424.34</v>
       </c>
       <c r="D37" t="n">
-        <v>647.08</v>
+        <v>477.16</v>
       </c>
       <c r="E37" t="n">
-        <v>20.972</v>
+        <v>1.784</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>489.2</v>
+        <v>477.16</v>
       </c>
       <c r="D38" t="n">
-        <v>547.96</v>
+        <v>540.59</v>
       </c>
       <c r="E38" t="n">
-        <v>0.604</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>547.96</v>
+        <v>519.15</v>
       </c>
       <c r="D39" t="n">
-        <v>633.35</v>
+        <v>574.95</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>713.55</v>
+        <v>414.56</v>
       </c>
       <c r="D40" t="n">
-        <v>773.17</v>
+        <v>493.98</v>
       </c>
       <c r="E40" t="n">
-        <v>18.764</v>
+        <v>5.012</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>626.8</v>
+        <v>574.95</v>
       </c>
       <c r="D41" t="n">
-        <v>689.42</v>
+        <v>643.0700000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>23.648</v>
+        <v>22.888</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>633.35</v>
+        <v>493.98</v>
       </c>
       <c r="D42" t="n">
-        <v>706.87</v>
+        <v>556.74</v>
       </c>
       <c r="E42" t="n">
-        <v>26.788</v>
+        <v>1.876</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>706.87</v>
+        <v>556.74</v>
       </c>
       <c r="D43" t="n">
-        <v>739.77</v>
+        <v>629.89</v>
       </c>
       <c r="E43" t="n">
-        <v>24.628</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>621.5700000000001</v>
+        <v>540.59</v>
       </c>
       <c r="D44" t="n">
-        <v>704.27</v>
+        <v>602.75</v>
       </c>
       <c r="E44" t="n">
-        <v>26.36</v>
+        <v>26.464</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>647.08</v>
+        <v>629.89</v>
       </c>
       <c r="D45" t="n">
-        <v>729.48</v>
+        <v>683.6900000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>18.812</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>pond53</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>602.75</v>
+      </c>
+      <c r="D46" t="n">
+        <v>667.65</v>
+      </c>
+      <c r="E46" t="n">
+        <v>23.604</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
         <v>2</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>pond20</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>704.27</v>
-      </c>
-      <c r="D46" t="n">
-        <v>770.41</v>
-      </c>
-      <c r="E46" t="n">
-        <v>22.856</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>pond32</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>683.6900000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>734.29</v>
+      </c>
+      <c r="E47" t="n">
+        <v>23.4</v>
       </c>
     </row>
   </sheetData>
